--- a/biology/Botanique/Nerprun_nain/Nerprun_nain.xlsx
+++ b/biology/Botanique/Nerprun_nain/Nerprun_nain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhamnus pumila
 Le nerprun nain (Rhamnus pumila) est une espèce de plantes à fleurs de la famille des Rhamnaceae. C'est un arbrisseau à l'écorce argentée. Il est extrêmement petit et pousse contre les rochers et dans les éboulis jusqu'à 3 000 m d'altitude. Ses fleurs sont très discrètes, de couleur verte, à quatre pétales. C'est une plante toxique provoquant des vomissements et des diarrhées.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : vert à verdâtre
@@ -526,7 +540,7 @@
 Dissémination : ?
 Habitat et répartition
 Habitat type : bois clairs, rochers et éboulis à l'étage subalpin
-Aire de répartition : Pyrénées, sud-est de la France[1], Doubs.</t>
+Aire de répartition : Pyrénées, sud-est de la France, Doubs.</t>
         </is>
       </c>
     </row>
@@ -554,7 +568,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est protégée en région Franche-Comté (Article 1).
 </t>
